--- a/materials/notebooks/sample200_emotions_ner.xlsx
+++ b/materials/notebooks/sample200_emotions_ner.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T201"/>
+  <dimension ref="A1:U201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,6 +434,11 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
           <t>tweetURL</t>
@@ -529,9 +534,14 @@
           <t>organizations</t>
         </is>
       </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>normalized_country</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" t="n">
         <v>14041</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -595,9 +605,14 @@
       <c r="R2" t="inlineStr"/>
       <c r="S2" t="inlineStr"/>
       <c r="T2" t="inlineStr"/>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" t="n">
         <v>3680</v>
       </c>
       <c r="B3" t="inlineStr">
@@ -669,9 +684,14 @@
         </is>
       </c>
       <c r="T3" t="inlineStr"/>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" t="n">
         <v>257</v>
       </c>
       <c r="B4" t="inlineStr">
@@ -740,9 +760,10 @@
           <t>Energy</t>
         </is>
       </c>
+      <c r="U4" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="A5" t="n">
         <v>16525</v>
       </c>
       <c r="B5" t="inlineStr">
@@ -808,9 +829,10 @@
       <c r="R5" t="inlineStr"/>
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr"/>
+      <c r="U5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
+      <c r="A6" t="n">
         <v>6147</v>
       </c>
       <c r="B6" t="inlineStr">
@@ -879,9 +901,14 @@
         </is>
       </c>
       <c r="T6" t="inlineStr"/>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
+      <c r="A7" t="n">
         <v>1238</v>
       </c>
       <c r="B7" t="inlineStr">
@@ -949,9 +976,14 @@
           <t>IBM Amazon Web Services Oil &amp; Gas Industry</t>
         </is>
       </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n">
+      <c r="A8" t="n">
         <v>15850</v>
       </c>
       <c r="B8" t="inlineStr">
@@ -1021,9 +1053,14 @@
           <t>EU EU _ Commission Energy Union EU EU</t>
         </is>
       </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n">
+      <c r="A9" t="n">
         <v>13406</v>
       </c>
       <c r="B9" t="inlineStr">
@@ -1093,9 +1130,14 @@
         </is>
       </c>
       <c r="T9" t="inlineStr"/>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n">
+      <c r="A10" t="n">
         <v>12284</v>
       </c>
       <c r="B10" t="inlineStr">
@@ -1169,9 +1211,10 @@
           <t>R</t>
         </is>
       </c>
+      <c r="U10" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="n">
+      <c r="A11" t="n">
         <v>15852</v>
       </c>
       <c r="B11" t="inlineStr">
@@ -1239,9 +1282,14 @@
           <t>##n En ##ur</t>
         </is>
       </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n">
+      <c r="A12" t="n">
         <v>1624</v>
       </c>
       <c r="B12" t="inlineStr">
@@ -1316,9 +1364,10 @@
           <t>EU</t>
         </is>
       </c>
+      <c r="U12" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="n">
+      <c r="A13" t="n">
         <v>3555</v>
       </c>
       <c r="B13" t="inlineStr">
@@ -1386,9 +1435,14 @@
           <t>Del ##oit ##te</t>
         </is>
       </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>TX</t>
+        </is>
+      </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="n">
+      <c r="A14" t="n">
         <v>12925</v>
       </c>
       <c r="B14" t="inlineStr">
@@ -1460,9 +1514,14 @@
           <t>I ##RE ##NA</t>
         </is>
       </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>England</t>
+        </is>
+      </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="n">
+      <c r="A15" t="n">
         <v>13211</v>
       </c>
       <c r="B15" t="inlineStr">
@@ -1530,9 +1589,14 @@
       </c>
       <c r="S15" t="inlineStr"/>
       <c r="T15" t="inlineStr"/>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>New Zealand</t>
+        </is>
+      </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="n">
+      <c r="A16" t="n">
         <v>1747</v>
       </c>
       <c r="B16" t="inlineStr">
@@ -1600,9 +1664,14 @@
           <t>Global Commission Y ##AG ##C ##lim ##ate</t>
         </is>
       </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>NYC</t>
+        </is>
+      </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="n">
+      <c r="A17" t="n">
         <v>8518</v>
       </c>
       <c r="B17" t="inlineStr">
@@ -1666,9 +1735,10 @@
         </is>
       </c>
       <c r="T17" t="inlineStr"/>
+      <c r="U17" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="n">
+      <c r="A18" t="n">
         <v>16272</v>
       </c>
       <c r="B18" t="inlineStr">
@@ -1743,9 +1813,14 @@
           <t>Energy ##C ##ou ##il</t>
         </is>
       </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="n">
+      <c r="A19" t="n">
         <v>6861</v>
       </c>
       <c r="B19" t="inlineStr">
@@ -1811,9 +1886,14 @@
       <c r="R19" t="inlineStr"/>
       <c r="S19" t="inlineStr"/>
       <c r="T19" t="inlineStr"/>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>Luxembourg</t>
+        </is>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n">
+      <c r="A20" t="n">
         <v>14225</v>
       </c>
       <c r="B20" t="inlineStr">
@@ -1881,9 +1961,14 @@
           <t>Climate ##C ##is Climate Energy</t>
         </is>
       </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>Tennessee</t>
+        </is>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="n">
+      <c r="A21" t="n">
         <v>4804</v>
       </c>
       <c r="B21" t="inlineStr">
@@ -1956,9 +2041,14 @@
           <t>International Solar Alliance IS ##A IS ##A</t>
         </is>
       </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n">
+      <c r="A22" t="n">
         <v>9505</v>
       </c>
       <c r="B22" t="inlineStr">
@@ -2027,9 +2117,14 @@
           <t>Energy ##T ##tion</t>
         </is>
       </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="n">
+      <c r="A23" t="n">
         <v>5027</v>
       </c>
       <c r="B23" t="inlineStr">
@@ -2099,9 +2194,14 @@
           <t>Total ##E ##ner ##gies E ##NG ##IE ##group Hall ##ib ##urt ##on</t>
         </is>
       </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>United Arab Emirates</t>
+        </is>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="n">
+      <c r="A24" t="n">
         <v>11255</v>
       </c>
       <c r="B24" t="inlineStr">
@@ -2165,9 +2265,14 @@
       <c r="R24" t="inlineStr"/>
       <c r="S24" t="inlineStr"/>
       <c r="T24" t="inlineStr"/>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="n">
+      <c r="A25" t="n">
         <v>11876</v>
       </c>
       <c r="B25" t="inlineStr">
@@ -2235,9 +2340,14 @@
         </is>
       </c>
       <c r="T25" t="inlineStr"/>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>Austria</t>
+        </is>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="n">
+      <c r="A26" t="n">
         <v>15427</v>
       </c>
       <c r="B26" t="inlineStr">
@@ -2306,9 +2416,14 @@
         </is>
       </c>
       <c r="T26" t="inlineStr"/>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="n">
+      <c r="A27" t="n">
         <v>1767</v>
       </c>
       <c r="B27" t="inlineStr">
@@ -2385,9 +2500,14 @@
           <t>##HT ##X @ T ##P ##H _ Co</t>
         </is>
       </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="n">
+      <c r="A28" t="n">
         <v>8846</v>
       </c>
       <c r="B28" t="inlineStr">
@@ -2447,9 +2567,10 @@
       <c r="R28" t="inlineStr"/>
       <c r="S28" t="inlineStr"/>
       <c r="T28" t="inlineStr"/>
+      <c r="U28" t="inlineStr"/>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="n">
+      <c r="A29" t="n">
         <v>1029</v>
       </c>
       <c r="B29" t="inlineStr">
@@ -2521,9 +2642,14 @@
           <t>P ##UT ##TR ##U</t>
         </is>
       </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>Nigeria</t>
+        </is>
+      </c>
     </row>
     <row r="30">
-      <c r="A30" s="1" t="n">
+      <c r="A30" t="n">
         <v>9015</v>
       </c>
       <c r="B30" t="inlineStr">
@@ -2591,9 +2717,10 @@
       <c r="R30" t="inlineStr"/>
       <c r="S30" t="inlineStr"/>
       <c r="T30" t="inlineStr"/>
+      <c r="U30" t="inlineStr"/>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="n">
+      <c r="A31" t="n">
         <v>6513</v>
       </c>
       <c r="B31" t="inlineStr">
@@ -2657,9 +2784,10 @@
       <c r="R31" t="inlineStr"/>
       <c r="S31" t="inlineStr"/>
       <c r="T31" t="inlineStr"/>
+      <c r="U31" t="inlineStr"/>
     </row>
     <row r="32">
-      <c r="A32" s="1" t="n">
+      <c r="A32" t="n">
         <v>13988</v>
       </c>
       <c r="B32" t="inlineStr">
@@ -2728,9 +2856,14 @@
           <t>I ##RE ##NA</t>
         </is>
       </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>United Arab Emirates</t>
+        </is>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" s="1" t="n">
+      <c r="A33" t="n">
         <v>7050</v>
       </c>
       <c r="B33" t="inlineStr">
@@ -2800,9 +2933,14 @@
           <t>Re ##uters</t>
         </is>
       </c>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="n">
+      <c r="A34" t="n">
         <v>13912</v>
       </c>
       <c r="B34" t="inlineStr">
@@ -2870,9 +3008,10 @@
           <t>R</t>
         </is>
       </c>
+      <c r="U34" t="inlineStr"/>
     </row>
     <row r="35">
-      <c r="A35" s="1" t="n">
+      <c r="A35" t="n">
         <v>14252</v>
       </c>
       <c r="B35" t="inlineStr">
@@ -2940,9 +3079,10 @@
           <t>Bar</t>
         </is>
       </c>
+      <c r="U35" t="inlineStr"/>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="n">
+      <c r="A36" t="n">
         <v>14643</v>
       </c>
       <c r="B36" t="inlineStr">
@@ -3010,9 +3150,10 @@
         </is>
       </c>
       <c r="T36" t="inlineStr"/>
+      <c r="U36" t="inlineStr"/>
     </row>
     <row r="37">
-      <c r="A37" s="1" t="n">
+      <c r="A37" t="n">
         <v>8562</v>
       </c>
       <c r="B37" t="inlineStr">
@@ -3084,9 +3225,10 @@
           <t>RS ##B ##Net ##work</t>
         </is>
       </c>
+      <c r="U37" t="inlineStr"/>
     </row>
     <row r="38">
-      <c r="A38" s="1" t="n">
+      <c r="A38" t="n">
         <v>9156</v>
       </c>
       <c r="B38" t="inlineStr">
@@ -3150,9 +3292,14 @@
       <c r="R38" t="inlineStr"/>
       <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr"/>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" s="1" t="n">
+      <c r="A39" t="n">
         <v>14270</v>
       </c>
       <c r="B39" t="inlineStr">
@@ -3224,9 +3371,14 @@
           <t>Lab ##E ##ner ##gy Energy ##tion Net ##Y</t>
         </is>
       </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="n">
+      <c r="A40" t="n">
         <v>11753</v>
       </c>
       <c r="B40" t="inlineStr">
@@ -3294,9 +3446,14 @@
         </is>
       </c>
       <c r="T40" t="inlineStr"/>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>New York City, NY, USA</t>
+        </is>
+      </c>
     </row>
     <row r="41">
-      <c r="A41" s="1" t="n">
+      <c r="A41" t="n">
         <v>14890</v>
       </c>
       <c r="B41" t="inlineStr">
@@ -3369,9 +3526,14 @@
           <t>Q ##r ##E ##ner ##gy</t>
         </is>
       </c>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>United Arab Emirates</t>
+        </is>
+      </c>
     </row>
     <row r="42">
-      <c r="A42" s="1" t="n">
+      <c r="A42" t="n">
         <v>14042</v>
       </c>
       <c r="B42" t="inlineStr">
@@ -3441,9 +3603,14 @@
         </is>
       </c>
       <c r="T42" t="inlineStr"/>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>Ireland</t>
+        </is>
+      </c>
     </row>
     <row r="43">
-      <c r="A43" s="1" t="n">
+      <c r="A43" t="n">
         <v>13622</v>
       </c>
       <c r="B43" t="inlineStr">
@@ -3508,9 +3675,10 @@
       <c r="R43" t="inlineStr"/>
       <c r="S43" t="inlineStr"/>
       <c r="T43" t="inlineStr"/>
+      <c r="U43" t="inlineStr"/>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="n">
+      <c r="A44" t="n">
         <v>1533</v>
       </c>
       <c r="B44" t="inlineStr">
@@ -3579,9 +3747,14 @@
         </is>
       </c>
       <c r="T44" t="inlineStr"/>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>Malaysia</t>
+        </is>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" s="1" t="n">
+      <c r="A45" t="n">
         <v>9193</v>
       </c>
       <c r="B45" t="inlineStr">
@@ -3653,9 +3826,10 @@
           <t>So ##S FC</t>
         </is>
       </c>
+      <c r="U45" t="inlineStr"/>
     </row>
     <row r="46">
-      <c r="A46" s="1" t="n">
+      <c r="A46" t="n">
         <v>132</v>
       </c>
       <c r="B46" t="inlineStr">
@@ -3723,9 +3897,14 @@
       </c>
       <c r="S46" t="inlineStr"/>
       <c r="T46" t="inlineStr"/>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" s="1" t="n">
+      <c r="A47" t="n">
         <v>5264</v>
       </c>
       <c r="B47" t="inlineStr">
@@ -3796,9 +3975,14 @@
           <t>World Economic Forum</t>
         </is>
       </c>
+      <c r="U47" t="inlineStr">
+        <is>
+          <t>Belgium</t>
+        </is>
+      </c>
     </row>
     <row r="48">
-      <c r="A48" s="1" t="n">
+      <c r="A48" t="n">
         <v>15356</v>
       </c>
       <c r="B48" t="inlineStr">
@@ -3862,9 +4046,14 @@
       <c r="R48" t="inlineStr"/>
       <c r="S48" t="inlineStr"/>
       <c r="T48" t="inlineStr"/>
+      <c r="U48" t="inlineStr">
+        <is>
+          <t>Austria</t>
+        </is>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" s="1" t="n">
+      <c r="A49" t="n">
         <v>7718</v>
       </c>
       <c r="B49" t="inlineStr">
@@ -3928,9 +4117,10 @@
         </is>
       </c>
       <c r="T49" t="inlineStr"/>
+      <c r="U49" t="inlineStr"/>
     </row>
     <row r="50">
-      <c r="A50" s="1" t="n">
+      <c r="A50" t="n">
         <v>8769</v>
       </c>
       <c r="B50" t="inlineStr">
@@ -3997,9 +4187,14 @@
       <c r="R50" t="inlineStr"/>
       <c r="S50" t="inlineStr"/>
       <c r="T50" t="inlineStr"/>
+      <c r="U50" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
     </row>
     <row r="51">
-      <c r="A51" s="1" t="n">
+      <c r="A51" t="n">
         <v>11274</v>
       </c>
       <c r="B51" t="inlineStr">
@@ -4073,9 +4268,10 @@
           <t>EU</t>
         </is>
       </c>
+      <c r="U51" t="inlineStr"/>
     </row>
     <row r="52">
-      <c r="A52" s="1" t="n">
+      <c r="A52" t="n">
         <v>13855</v>
       </c>
       <c r="B52" t="inlineStr">
@@ -4148,9 +4344,14 @@
         </is>
       </c>
       <c r="T52" t="inlineStr"/>
+      <c r="U52" t="inlineStr">
+        <is>
+          <t>Belgium</t>
+        </is>
+      </c>
     </row>
     <row r="53">
-      <c r="A53" s="1" t="n">
+      <c r="A53" t="n">
         <v>911</v>
       </c>
       <c r="B53" t="inlineStr">
@@ -4218,9 +4419,15 @@
           <t>I ##C ##Y ##MI Energy ##I ##act Net</t>
         </is>
       </c>
+      <c r="U53" t="inlineStr">
+        <is>
+          <t>NYC, NY represents New York City in New York state, USA. Therefore, the standard country name for this location text is:
+USA</t>
+        </is>
+      </c>
     </row>
     <row r="54">
-      <c r="A54" s="1" t="n">
+      <c r="A54" t="n">
         <v>6190</v>
       </c>
       <c r="B54" t="inlineStr">
@@ -4290,9 +4497,14 @@
           <t>Energy Energy _ Q ##LD</t>
         </is>
       </c>
+      <c r="U54" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
     </row>
     <row r="55">
-      <c r="A55" s="1" t="n">
+      <c r="A55" t="n">
         <v>3452</v>
       </c>
       <c r="B55" t="inlineStr">
@@ -4356,9 +4568,14 @@
       <c r="R55" t="inlineStr"/>
       <c r="S55" t="inlineStr"/>
       <c r="T55" t="inlineStr"/>
+      <c r="U55" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
     </row>
     <row r="56">
-      <c r="A56" s="1" t="n">
+      <c r="A56" t="n">
         <v>5702</v>
       </c>
       <c r="B56" t="inlineStr">
@@ -4426,9 +4643,14 @@
       <c r="R56" t="inlineStr"/>
       <c r="S56" t="inlineStr"/>
       <c r="T56" t="inlineStr"/>
+      <c r="U56" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
     </row>
     <row r="57">
-      <c r="A57" s="1" t="n">
+      <c r="A57" t="n">
         <v>127</v>
       </c>
       <c r="B57" t="inlineStr">
@@ -4499,9 +4721,14 @@
           <t>Gas Nord</t>
         </is>
       </c>
+      <c r="U57" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
     </row>
     <row r="58">
-      <c r="A58" s="1" t="n">
+      <c r="A58" t="n">
         <v>6852</v>
       </c>
       <c r="B58" t="inlineStr">
@@ -4570,9 +4797,10 @@
         </is>
       </c>
       <c r="T58" t="inlineStr"/>
+      <c r="U58" t="inlineStr"/>
     </row>
     <row r="59">
-      <c r="A59" s="1" t="n">
+      <c r="A59" t="n">
         <v>2900</v>
       </c>
       <c r="B59" t="inlineStr">
@@ -4640,9 +4868,14 @@
           <t>##ías ##ias</t>
         </is>
       </c>
+      <c r="U59" t="inlineStr">
+        <is>
+          <t>España</t>
+        </is>
+      </c>
     </row>
     <row r="60">
-      <c r="A60" s="1" t="n">
+      <c r="A60" t="n">
         <v>3503</v>
       </c>
       <c r="B60" t="inlineStr">
@@ -4706,9 +4939,10 @@
           <t>Energy ##T ##tion</t>
         </is>
       </c>
+      <c r="U60" t="inlineStr"/>
     </row>
     <row r="61">
-      <c r="A61" s="1" t="n">
+      <c r="A61" t="n">
         <v>2825</v>
       </c>
       <c r="B61" t="inlineStr">
@@ -4780,9 +5014,10 @@
           <t>x ##cel ##ener ##gy</t>
         </is>
       </c>
+      <c r="U61" t="inlineStr"/>
     </row>
     <row r="62">
-      <c r="A62" s="1" t="n">
+      <c r="A62" t="n">
         <v>4816</v>
       </c>
       <c r="B62" t="inlineStr">
@@ -4846,9 +5081,10 @@
       </c>
       <c r="S62" t="inlineStr"/>
       <c r="T62" t="inlineStr"/>
+      <c r="U62" t="inlineStr"/>
     </row>
     <row r="63">
-      <c r="A63" s="1" t="n">
+      <c r="A63" t="n">
         <v>12374</v>
       </c>
       <c r="B63" t="inlineStr">
@@ -4912,9 +5148,10 @@
           <t>@ Victory ##H ##ill LL ##P</t>
         </is>
       </c>
+      <c r="U63" t="inlineStr"/>
     </row>
     <row r="64">
-      <c r="A64" s="1" t="n">
+      <c r="A64" t="n">
         <v>2556</v>
       </c>
       <c r="B64" t="inlineStr">
@@ -4988,9 +5225,10 @@
         </is>
       </c>
       <c r="T64" t="inlineStr"/>
+      <c r="U64" t="inlineStr"/>
     </row>
     <row r="65">
-      <c r="A65" s="1" t="n">
+      <c r="A65" t="n">
         <v>5054</v>
       </c>
       <c r="B65" t="inlineStr">
@@ -5059,9 +5297,10 @@
           <t>C ##NE ##T</t>
         </is>
       </c>
+      <c r="U65" t="inlineStr"/>
     </row>
     <row r="66">
-      <c r="A66" s="1" t="n">
+      <c r="A66" t="n">
         <v>716</v>
       </c>
       <c r="B66" t="inlineStr">
@@ -5134,9 +5373,10 @@
           <t>B Climate UN ##DP ##C Youth BS ##C Bill ##G Green ##pe ##ace Energy ##T ##tion Earth Climate</t>
         </is>
       </c>
+      <c r="U66" t="inlineStr"/>
     </row>
     <row r="67">
-      <c r="A67" s="1" t="n">
+      <c r="A67" t="n">
         <v>3201</v>
       </c>
       <c r="B67" t="inlineStr">
@@ -5204,9 +5444,14 @@
           <t>B</t>
         </is>
       </c>
+      <c r="U67" t="inlineStr">
+        <is>
+          <t>Netherlands</t>
+        </is>
+      </c>
     </row>
     <row r="68">
-      <c r="A68" s="1" t="n">
+      <c r="A68" t="n">
         <v>15202</v>
       </c>
       <c r="B68" t="inlineStr">
@@ -5280,9 +5525,14 @@
           <t>Fe</t>
         </is>
       </c>
+      <c r="U68" t="inlineStr">
+        <is>
+          <t>Nova Scotia</t>
+        </is>
+      </c>
     </row>
     <row r="69">
-      <c r="A69" s="1" t="n">
+      <c r="A69" t="n">
         <v>14772</v>
       </c>
       <c r="B69" t="inlineStr">
@@ -5352,9 +5602,14 @@
           <t>Cam ##C</t>
         </is>
       </c>
+      <c r="U69" t="inlineStr">
+        <is>
+          <t>United Arab Emirates</t>
+        </is>
+      </c>
     </row>
     <row r="70">
-      <c r="A70" s="1" t="n">
+      <c r="A70" t="n">
         <v>10593</v>
       </c>
       <c r="B70" t="inlineStr">
@@ -5422,9 +5677,14 @@
           <t>Ra In</t>
         </is>
       </c>
+      <c r="U70" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
     </row>
     <row r="71">
-      <c r="A71" s="1" t="n">
+      <c r="A71" t="n">
         <v>10443</v>
       </c>
       <c r="B71" t="inlineStr">
@@ -5493,9 +5753,14 @@
         </is>
       </c>
       <c r="T71" t="inlineStr"/>
+      <c r="U71" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
     </row>
     <row r="72">
-      <c r="A72" s="1" t="n">
+      <c r="A72" t="n">
         <v>4455</v>
       </c>
       <c r="B72" t="inlineStr">
@@ -5571,9 +5836,14 @@
           <t>Se ##S ##on ##ny ##S ##ays Se ##Y AD ##B _ HQ Ke ##men ##ke ##u ##RI</t>
         </is>
       </c>
+      <c r="U72" t="inlineStr">
+        <is>
+          <t>Philippines</t>
+        </is>
+      </c>
     </row>
     <row r="73">
-      <c r="A73" s="1" t="n">
+      <c r="A73" t="n">
         <v>13421</v>
       </c>
       <c r="B73" t="inlineStr">
@@ -5637,9 +5907,10 @@
       <c r="R73" t="inlineStr"/>
       <c r="S73" t="inlineStr"/>
       <c r="T73" t="inlineStr"/>
+      <c r="U73" t="inlineStr"/>
     </row>
     <row r="74">
-      <c r="A74" s="1" t="n">
+      <c r="A74" t="n">
         <v>12641</v>
       </c>
       <c r="B74" t="inlineStr">
@@ -5711,9 +5982,10 @@
           <t>E ##DP ##R E ##DP ##B ##ras ##il E</t>
         </is>
       </c>
+      <c r="U74" t="inlineStr"/>
     </row>
     <row r="75">
-      <c r="A75" s="1" t="n">
+      <c r="A75" t="n">
         <v>2548</v>
       </c>
       <c r="B75" t="inlineStr">
@@ -5781,9 +6053,14 @@
           <t>V ##V ##V ##y ##E ##con ##B ##iz Deep Di ##sh</t>
         </is>
       </c>
+      <c r="U75" t="inlineStr">
+        <is>
+          <t>IL</t>
+        </is>
+      </c>
     </row>
     <row r="76">
-      <c r="A76" s="1" t="n">
+      <c r="A76" t="n">
         <v>11894</v>
       </c>
       <c r="B76" t="inlineStr">
@@ -5856,9 +6133,14 @@
           <t>S &amp; P Global P ##latt ##s</t>
         </is>
       </c>
+      <c r="U76" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
     </row>
     <row r="77">
-      <c r="A77" s="1" t="n">
+      <c r="A77" t="n">
         <v>807</v>
       </c>
       <c r="B77" t="inlineStr">
@@ -5931,9 +6213,14 @@
           <t>Energy ##C ##is Energy</t>
         </is>
       </c>
+      <c r="U77" t="inlineStr">
+        <is>
+          <t>Ireland</t>
+        </is>
+      </c>
     </row>
     <row r="78">
-      <c r="A78" s="1" t="n">
+      <c r="A78" t="n">
         <v>4687</v>
       </c>
       <c r="B78" t="inlineStr">
@@ -6001,9 +6288,14 @@
           <t>I ##MF</t>
         </is>
       </c>
+      <c r="U78" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
     </row>
     <row r="79">
-      <c r="A79" s="1" t="n">
+      <c r="A79" t="n">
         <v>8177</v>
       </c>
       <c r="B79" t="inlineStr">
@@ -6066,9 +6358,10 @@
       <c r="R79" t="inlineStr"/>
       <c r="S79" t="inlineStr"/>
       <c r="T79" t="inlineStr"/>
+      <c r="U79" t="inlineStr"/>
     </row>
     <row r="80">
-      <c r="A80" s="1" t="n">
+      <c r="A80" t="n">
         <v>13190</v>
       </c>
       <c r="B80" t="inlineStr">
@@ -6136,9 +6429,14 @@
           <t>Sep ##lat</t>
         </is>
       </c>
+      <c r="U80" t="inlineStr">
+        <is>
+          <t>Nigeria</t>
+        </is>
+      </c>
     </row>
     <row r="81">
-      <c r="A81" s="1" t="n">
+      <c r="A81" t="n">
         <v>7464</v>
       </c>
       <c r="B81" t="inlineStr">
@@ -6209,9 +6507,10 @@
           <t>Berlin ##S ##cie ##nce ##W ##eek Energy Climate</t>
         </is>
       </c>
+      <c r="U81" t="inlineStr"/>
     </row>
     <row r="82">
-      <c r="A82" s="1" t="n">
+      <c r="A82" t="n">
         <v>13897</v>
       </c>
       <c r="B82" t="inlineStr">
@@ -6280,9 +6579,14 @@
       </c>
       <c r="S82" t="inlineStr"/>
       <c r="T82" t="inlineStr"/>
+      <c r="U82" t="inlineStr">
+        <is>
+          <t>Sweden</t>
+        </is>
+      </c>
     </row>
     <row r="83">
-      <c r="A83" s="1" t="n">
+      <c r="A83" t="n">
         <v>4383</v>
       </c>
       <c r="B83" t="inlineStr">
@@ -6354,9 +6658,10 @@
           <t>Coral ##S ##outh Son ##ang ##ol African ##E ##ner ##gy ##W ##eek</t>
         </is>
       </c>
+      <c r="U83" t="inlineStr"/>
     </row>
     <row r="84">
-      <c r="A84" s="1" t="n">
+      <c r="A84" t="n">
         <v>14730</v>
       </c>
       <c r="B84" t="inlineStr">
@@ -6427,9 +6732,10 @@
           <t>##U Del I</t>
         </is>
       </c>
+      <c r="U84" t="inlineStr"/>
     </row>
     <row r="85">
-      <c r="A85" s="1" t="n">
+      <c r="A85" t="n">
         <v>13481</v>
       </c>
       <c r="B85" t="inlineStr">
@@ -6501,9 +6807,10 @@
           <t>GP</t>
         </is>
       </c>
+      <c r="U85" t="inlineStr"/>
     </row>
     <row r="86">
-      <c r="A86" s="1" t="n">
+      <c r="A86" t="n">
         <v>794</v>
       </c>
       <c r="B86" t="inlineStr">
@@ -6575,9 +6882,10 @@
           <t>Emery J</t>
         </is>
       </c>
+      <c r="U86" t="inlineStr"/>
     </row>
     <row r="87">
-      <c r="A87" s="1" t="n">
+      <c r="A87" t="n">
         <v>9683</v>
       </c>
       <c r="B87" t="inlineStr">
@@ -6645,9 +6953,14 @@
           <t>I ##EI</t>
         </is>
       </c>
+      <c r="U87" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
     </row>
     <row r="88">
-      <c r="A88" s="1" t="n">
+      <c r="A88" t="n">
         <v>5496</v>
       </c>
       <c r="B88" t="inlineStr">
@@ -6711,9 +7024,14 @@
       <c r="R88" t="inlineStr"/>
       <c r="S88" t="inlineStr"/>
       <c r="T88" t="inlineStr"/>
+      <c r="U88" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
     </row>
     <row r="89">
-      <c r="A89" s="1" t="n">
+      <c r="A89" t="n">
         <v>14186</v>
       </c>
       <c r="B89" t="inlineStr">
@@ -6783,9 +7101,10 @@
           <t>n ##ited @ Ta ##ta ##P ##ow ##er I ##EE ##FA</t>
         </is>
       </c>
+      <c r="U89" t="inlineStr"/>
     </row>
     <row r="90">
-      <c r="A90" s="1" t="n">
+      <c r="A90" t="n">
         <v>16428</v>
       </c>
       <c r="B90" t="inlineStr">
@@ -6859,9 +7178,14 @@
           <t>ME Reg ##ea ##A ##cy A ##EA ##N Environment ##P ##ark Z ##RS ##B ##ist ##ra P P ##asus ##P ##Z</t>
         </is>
       </c>
+      <c r="U90" t="inlineStr">
+        <is>
+          <t>España</t>
+        </is>
+      </c>
     </row>
     <row r="91">
-      <c r="A91" s="1" t="n">
+      <c r="A91" t="n">
         <v>7805</v>
       </c>
       <c r="B91" t="inlineStr">
@@ -6937,9 +7261,14 @@
           <t>Free Trade ##CF</t>
         </is>
       </c>
+      <c r="U91" t="inlineStr">
+        <is>
+          <t>El Salvador</t>
+        </is>
+      </c>
     </row>
     <row r="92">
-      <c r="A92" s="1" t="n">
+      <c r="A92" t="n">
         <v>14766</v>
       </c>
       <c r="B92" t="inlineStr">
@@ -7011,9 +7340,14 @@
           <t>UK ##W ##eek</t>
         </is>
       </c>
+      <c r="U92" t="inlineStr">
+        <is>
+          <t>Scotland</t>
+        </is>
+      </c>
     </row>
     <row r="93">
-      <c r="A93" s="1" t="n">
+      <c r="A93" t="n">
         <v>8243</v>
       </c>
       <c r="B93" t="inlineStr">
@@ -7081,9 +7415,10 @@
         </is>
       </c>
       <c r="T93" t="inlineStr"/>
+      <c r="U93" t="inlineStr"/>
     </row>
     <row r="94">
-      <c r="A94" s="1" t="n">
+      <c r="A94" t="n">
         <v>3972</v>
       </c>
       <c r="B94" t="inlineStr">
@@ -7153,9 +7488,10 @@
         </is>
       </c>
       <c r="T94" t="inlineStr"/>
+      <c r="U94" t="inlineStr"/>
     </row>
     <row r="95">
-      <c r="A95" s="1" t="n">
+      <c r="A95" t="n">
         <v>9800</v>
       </c>
       <c r="B95" t="inlineStr">
@@ -7224,9 +7560,14 @@
       <c r="R95" t="inlineStr"/>
       <c r="S95" t="inlineStr"/>
       <c r="T95" t="inlineStr"/>
+      <c r="U95" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
     </row>
     <row r="96">
-      <c r="A96" s="1" t="n">
+      <c r="A96" t="n">
         <v>15294</v>
       </c>
       <c r="B96" t="inlineStr">
@@ -7292,9 +7633,14 @@
       <c r="R96" t="inlineStr"/>
       <c r="S96" t="inlineStr"/>
       <c r="T96" t="inlineStr"/>
+      <c r="U96" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
     </row>
     <row r="97">
-      <c r="A97" s="1" t="n">
+      <c r="A97" t="n">
         <v>14839</v>
       </c>
       <c r="B97" t="inlineStr">
@@ -7367,9 +7713,10 @@
           <t>Lu ##sa</t>
         </is>
       </c>
+      <c r="U97" t="inlineStr"/>
     </row>
     <row r="98">
-      <c r="A98" s="1" t="n">
+      <c r="A98" t="n">
         <v>10304</v>
       </c>
       <c r="B98" t="inlineStr">
@@ -7436,9 +7783,14 @@
       <c r="R98" t="inlineStr"/>
       <c r="S98" t="inlineStr"/>
       <c r="T98" t="inlineStr"/>
+      <c r="U98" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
     </row>
     <row r="99">
-      <c r="A99" s="1" t="n">
+      <c r="A99" t="n">
         <v>16565</v>
       </c>
       <c r="B99" t="inlineStr">
@@ -7510,9 +7862,10 @@
           <t>Climate ##C ##is</t>
         </is>
       </c>
+      <c r="U99" t="inlineStr"/>
     </row>
     <row r="100">
-      <c r="A100" s="1" t="n">
+      <c r="A100" t="n">
         <v>3822</v>
       </c>
       <c r="B100" t="inlineStr">
@@ -7576,9 +7929,10 @@
           <t>Shell Baker Hughes</t>
         </is>
       </c>
+      <c r="U100" t="inlineStr"/>
     </row>
     <row r="101">
-      <c r="A101" s="1" t="n">
+      <c r="A101" t="n">
         <v>14509</v>
       </c>
       <c r="B101" t="inlineStr">
@@ -7652,9 +8006,14 @@
         </is>
       </c>
       <c r="T101" t="inlineStr"/>
+      <c r="U101" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
     </row>
     <row r="102">
-      <c r="A102" s="1" t="n">
+      <c r="A102" t="n">
         <v>3671</v>
       </c>
       <c r="B102" t="inlineStr">
@@ -7718,9 +8077,10 @@
           <t>EU</t>
         </is>
       </c>
+      <c r="U102" t="inlineStr"/>
     </row>
     <row r="103">
-      <c r="A103" s="1" t="n">
+      <c r="A103" t="n">
         <v>6364</v>
       </c>
       <c r="B103" t="inlineStr">
@@ -7792,9 +8152,10 @@
           <t>U ##T</t>
         </is>
       </c>
+      <c r="U103" t="inlineStr"/>
     </row>
     <row r="104">
-      <c r="A104" s="1" t="n">
+      <c r="A104" t="n">
         <v>2894</v>
       </c>
       <c r="B104" t="inlineStr">
@@ -7859,9 +8220,14 @@
       <c r="R104" t="inlineStr"/>
       <c r="S104" t="inlineStr"/>
       <c r="T104" t="inlineStr"/>
+      <c r="U104" t="inlineStr">
+        <is>
+          <t>Kenya</t>
+        </is>
+      </c>
     </row>
     <row r="105">
-      <c r="A105" s="1" t="n">
+      <c r="A105" t="n">
         <v>15079</v>
       </c>
       <c r="B105" t="inlineStr">
@@ -7925,9 +8291,10 @@
           <t>##y G ##ui ##be ##ault</t>
         </is>
       </c>
+      <c r="U105" t="inlineStr"/>
     </row>
     <row r="106">
-      <c r="A106" s="1" t="n">
+      <c r="A106" t="n">
         <v>1222</v>
       </c>
       <c r="B106" t="inlineStr">
@@ -7996,9 +8363,14 @@
           <t>E E</t>
         </is>
       </c>
+      <c r="U106" t="inlineStr">
+        <is>
+          <t>Portugal</t>
+        </is>
+      </c>
     </row>
     <row r="107">
-      <c r="A107" s="1" t="n">
+      <c r="A107" t="n">
         <v>12442</v>
       </c>
       <c r="B107" t="inlineStr">
@@ -8067,9 +8439,14 @@
           <t>I ##GE ##M Institution of Gas Engineers and Manager Team ##co ##well ##e Gas ##ry Energy</t>
         </is>
       </c>
+      <c r="U107" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
     </row>
     <row r="108">
-      <c r="A108" s="1" t="n">
+      <c r="A108" t="n">
         <v>8506</v>
       </c>
       <c r="B108" t="inlineStr">
@@ -8138,9 +8515,10 @@
       </c>
       <c r="S108" t="inlineStr"/>
       <c r="T108" t="inlineStr"/>
+      <c r="U108" t="inlineStr"/>
     </row>
     <row r="109">
-      <c r="A109" s="1" t="n">
+      <c r="A109" t="n">
         <v>13656</v>
       </c>
       <c r="B109" t="inlineStr">
@@ -8209,9 +8587,14 @@
           <t>Je ##rez ##a I ##EA I ##CF</t>
         </is>
       </c>
+      <c r="U109" t="inlineStr">
+        <is>
+          <t>California</t>
+        </is>
+      </c>
     </row>
     <row r="110">
-      <c r="A110" s="1" t="n">
+      <c r="A110" t="n">
         <v>11902</v>
       </c>
       <c r="B110" t="inlineStr">
@@ -8279,9 +8662,14 @@
         </is>
       </c>
       <c r="T110" t="inlineStr"/>
+      <c r="U110" t="inlineStr">
+        <is>
+          <t>California</t>
+        </is>
+      </c>
     </row>
     <row r="111">
-      <c r="A111" s="1" t="n">
+      <c r="A111" t="n">
         <v>15069</v>
       </c>
       <c r="B111" t="inlineStr">
@@ -8353,9 +8741,14 @@
           <t>@ La ##nta ##u ##G ##roup</t>
         </is>
       </c>
+      <c r="U111" t="inlineStr">
+        <is>
+          <t>Singapore</t>
+        </is>
+      </c>
     </row>
     <row r="112">
-      <c r="A112" s="1" t="n">
+      <c r="A112" t="n">
         <v>14092</v>
       </c>
       <c r="B112" t="inlineStr">
@@ -8424,9 +8817,14 @@
           <t>C</t>
         </is>
       </c>
+      <c r="U112" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
     </row>
     <row r="113">
-      <c r="A113" s="1" t="n">
+      <c r="A113" t="n">
         <v>581</v>
       </c>
       <c r="B113" t="inlineStr">
@@ -8494,9 +8892,14 @@
           <t>R</t>
         </is>
       </c>
+      <c r="U113" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
     </row>
     <row r="114">
-      <c r="A114" s="1" t="n">
+      <c r="A114" t="n">
         <v>13966</v>
       </c>
       <c r="B114" t="inlineStr">
@@ -8565,9 +8968,10 @@
         </is>
       </c>
       <c r="T114" t="inlineStr"/>
+      <c r="U114" t="inlineStr"/>
     </row>
     <row r="115">
-      <c r="A115" s="1" t="n">
+      <c r="A115" t="n">
         <v>10184</v>
       </c>
       <c r="B115" t="inlineStr">
@@ -8644,9 +9048,14 @@
           <t>Energy ##ion Sustainable Development of 🇲🇦 EU</t>
         </is>
       </c>
+      <c r="U115" t="inlineStr">
+        <is>
+          <t>Estonia</t>
+        </is>
+      </c>
     </row>
     <row r="116">
-      <c r="A116" s="1" t="n">
+      <c r="A116" t="n">
         <v>9427</v>
       </c>
       <c r="B116" t="inlineStr">
@@ -8710,9 +9119,14 @@
       <c r="R116" t="inlineStr"/>
       <c r="S116" t="inlineStr"/>
       <c r="T116" t="inlineStr"/>
+      <c r="U116" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
     </row>
     <row r="117">
-      <c r="A117" s="1" t="n">
+      <c r="A117" t="n">
         <v>11895</v>
       </c>
       <c r="B117" t="inlineStr">
@@ -8784,9 +9198,10 @@
           <t>E ##sko ##m Energy ##T ##tion F ##T</t>
         </is>
       </c>
+      <c r="U117" t="inlineStr"/>
     </row>
     <row r="118">
-      <c r="A118" s="1" t="n">
+      <c r="A118" t="n">
         <v>12828</v>
       </c>
       <c r="B118" t="inlineStr">
@@ -8854,9 +9269,14 @@
           <t>A ##O Energy ##tion</t>
         </is>
       </c>
+      <c r="U118" t="inlineStr">
+        <is>
+          <t>Queensland</t>
+        </is>
+      </c>
     </row>
     <row r="119">
-      <c r="A119" s="1" t="n">
+      <c r="A119" t="n">
         <v>2228</v>
       </c>
       <c r="B119" t="inlineStr">
@@ -8928,9 +9348,14 @@
           <t>Shell</t>
         </is>
       </c>
+      <c r="U119" t="inlineStr">
+        <is>
+          <t>Korea</t>
+        </is>
+      </c>
     </row>
     <row r="120">
-      <c r="A120" s="1" t="n">
+      <c r="A120" t="n">
         <v>12050</v>
       </c>
       <c r="B120" t="inlineStr">
@@ -8995,9 +9420,14 @@
       <c r="R120" t="inlineStr"/>
       <c r="S120" t="inlineStr"/>
       <c r="T120" t="inlineStr"/>
+      <c r="U120" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
     </row>
     <row r="121">
-      <c r="A121" s="1" t="n">
+      <c r="A121" t="n">
         <v>1798</v>
       </c>
       <c r="B121" t="inlineStr">
@@ -9065,9 +9495,10 @@
           <t>Shell W</t>
         </is>
       </c>
+      <c r="U121" t="inlineStr"/>
     </row>
     <row r="122">
-      <c r="A122" s="1" t="n">
+      <c r="A122" t="n">
         <v>7870</v>
       </c>
       <c r="B122" t="inlineStr">
@@ -9141,9 +9572,14 @@
           <t>NASA Space ##X</t>
         </is>
       </c>
+      <c r="U122" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
+      </c>
     </row>
     <row r="123">
-      <c r="A123" s="1" t="n">
+      <c r="A123" t="n">
         <v>16694</v>
       </c>
       <c r="B123" t="inlineStr">
@@ -9219,9 +9655,14 @@
           <t>Asia ##C ##lean ##E ##ner ##gy ##S @ BC ##G S</t>
         </is>
       </c>
+      <c r="U123" t="inlineStr">
+        <is>
+          <t>Singapore</t>
+        </is>
+      </c>
     </row>
     <row r="124">
-      <c r="A124" s="1" t="n">
+      <c r="A124" t="n">
         <v>10537</v>
       </c>
       <c r="B124" t="inlineStr">
@@ -9289,9 +9730,14 @@
       </c>
       <c r="S124" t="inlineStr"/>
       <c r="T124" t="inlineStr"/>
+      <c r="U124" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
     </row>
     <row r="125">
-      <c r="A125" s="1" t="n">
+      <c r="A125" t="n">
         <v>12900</v>
       </c>
       <c r="B125" t="inlineStr">
@@ -9355,9 +9801,14 @@
       <c r="R125" t="inlineStr"/>
       <c r="S125" t="inlineStr"/>
       <c r="T125" t="inlineStr"/>
+      <c r="U125" t="inlineStr">
+        <is>
+          <t>MI</t>
+        </is>
+      </c>
     </row>
     <row r="126">
-      <c r="A126" s="1" t="n">
+      <c r="A126" t="n">
         <v>11622</v>
       </c>
       <c r="B126" t="inlineStr">
@@ -9418,9 +9869,10 @@
       <c r="R126" t="inlineStr"/>
       <c r="S126" t="inlineStr"/>
       <c r="T126" t="inlineStr"/>
+      <c r="U126" t="inlineStr"/>
     </row>
     <row r="127">
-      <c r="A127" s="1" t="n">
+      <c r="A127" t="n">
         <v>4438</v>
       </c>
       <c r="B127" t="inlineStr">
@@ -9485,9 +9937,10 @@
       <c r="R127" t="inlineStr"/>
       <c r="S127" t="inlineStr"/>
       <c r="T127" t="inlineStr"/>
+      <c r="U127" t="inlineStr"/>
     </row>
     <row r="128">
-      <c r="A128" s="1" t="n">
+      <c r="A128" t="n">
         <v>11469</v>
       </c>
       <c r="B128" t="inlineStr">
@@ -9560,9 +10013,14 @@
           <t>O ##C ##ons ##ing</t>
         </is>
       </c>
+      <c r="U128" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
     </row>
     <row r="129">
-      <c r="A129" s="1" t="n">
+      <c r="A129" t="n">
         <v>12779</v>
       </c>
       <c r="B129" t="inlineStr">
@@ -9622,9 +10080,10 @@
       <c r="R129" t="inlineStr"/>
       <c r="S129" t="inlineStr"/>
       <c r="T129" t="inlineStr"/>
+      <c r="U129" t="inlineStr"/>
     </row>
     <row r="130">
-      <c r="A130" s="1" t="n">
+      <c r="A130" t="n">
         <v>12675</v>
       </c>
       <c r="B130" t="inlineStr">
@@ -9698,9 +10157,14 @@
           <t>UK ##ME ##CS R</t>
         </is>
       </c>
+      <c r="U130" t="inlineStr">
+        <is>
+          <t>Austria</t>
+        </is>
+      </c>
     </row>
     <row r="131">
-      <c r="A131" s="1" t="n">
+      <c r="A131" t="n">
         <v>3767</v>
       </c>
       <c r="B131" t="inlineStr">
@@ -9764,9 +10228,14 @@
       <c r="R131" t="inlineStr"/>
       <c r="S131" t="inlineStr"/>
       <c r="T131" t="inlineStr"/>
+      <c r="U131" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
+      </c>
     </row>
     <row r="132">
-      <c r="A132" s="1" t="n">
+      <c r="A132" t="n">
         <v>15397</v>
       </c>
       <c r="B132" t="inlineStr">
@@ -9830,9 +10299,10 @@
         </is>
       </c>
       <c r="T132" t="inlineStr"/>
+      <c r="U132" t="inlineStr"/>
     </row>
     <row r="133">
-      <c r="A133" s="1" t="n">
+      <c r="A133" t="n">
         <v>7967</v>
       </c>
       <c r="B133" t="inlineStr">
@@ -9900,9 +10370,10 @@
         </is>
       </c>
       <c r="T133" t="inlineStr"/>
+      <c r="U133" t="inlineStr"/>
     </row>
     <row r="134">
-      <c r="A134" s="1" t="n">
+      <c r="A134" t="n">
         <v>14618</v>
       </c>
       <c r="B134" t="inlineStr">
@@ -9978,9 +10449,10 @@
           <t>EU C ##lient ##E ##art ##h EU</t>
         </is>
       </c>
+      <c r="U134" t="inlineStr"/>
     </row>
     <row r="135">
-      <c r="A135" s="1" t="n">
+      <c r="A135" t="n">
         <v>16400</v>
       </c>
       <c r="B135" t="inlineStr">
@@ -10048,9 +10520,14 @@
           <t>European Commission</t>
         </is>
       </c>
+      <c r="U135" t="inlineStr">
+        <is>
+          <t>Belgium</t>
+        </is>
+      </c>
     </row>
     <row r="136">
-      <c r="A136" s="1" t="n">
+      <c r="A136" t="n">
         <v>9245</v>
       </c>
       <c r="B136" t="inlineStr">
@@ -10127,9 +10604,14 @@
           <t>Development UN ##FC ##CC</t>
         </is>
       </c>
+      <c r="U136" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
     </row>
     <row r="137">
-      <c r="A137" s="1" t="n">
+      <c r="A137" t="n">
         <v>4192</v>
       </c>
       <c r="B137" t="inlineStr">
@@ -10197,9 +10679,10 @@
         </is>
       </c>
       <c r="T137" t="inlineStr"/>
+      <c r="U137" t="inlineStr"/>
     </row>
     <row r="138">
-      <c r="A138" s="1" t="n">
+      <c r="A138" t="n">
         <v>15183</v>
       </c>
       <c r="B138" t="inlineStr">
@@ -10271,9 +10754,14 @@
           <t>Gold ##wind</t>
         </is>
       </c>
+      <c r="U138" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
     </row>
     <row r="139">
-      <c r="A139" s="1" t="n">
+      <c r="A139" t="n">
         <v>8467</v>
       </c>
       <c r="B139" t="inlineStr">
@@ -10341,9 +10829,14 @@
         </is>
       </c>
       <c r="T139" t="inlineStr"/>
+      <c r="U139" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
     </row>
     <row r="140">
-      <c r="A140" s="1" t="n">
+      <c r="A140" t="n">
         <v>5818</v>
       </c>
       <c r="B140" t="inlineStr">
@@ -10405,9 +10898,10 @@
       <c r="R140" t="inlineStr"/>
       <c r="S140" t="inlineStr"/>
       <c r="T140" t="inlineStr"/>
+      <c r="U140" t="inlineStr"/>
     </row>
     <row r="141">
-      <c r="A141" s="1" t="n">
+      <c r="A141" t="n">
         <v>7566</v>
       </c>
       <c r="B141" t="inlineStr">
@@ -10471,9 +10965,10 @@
           <t>Ke ##ment ##eria ##n E ##SD ##M ##inas ##i</t>
         </is>
       </c>
+      <c r="U141" t="inlineStr"/>
     </row>
     <row r="142">
-      <c r="A142" s="1" t="n">
+      <c r="A142" t="n">
         <v>5881</v>
       </c>
       <c r="B142" t="inlineStr">
@@ -10538,9 +11033,14 @@
       <c r="R142" t="inlineStr"/>
       <c r="S142" t="inlineStr"/>
       <c r="T142" t="inlineStr"/>
+      <c r="U142" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
     </row>
     <row r="143">
-      <c r="A143" s="1" t="n">
+      <c r="A143" t="n">
         <v>6073</v>
       </c>
       <c r="B143" t="inlineStr">
@@ -10612,9 +11112,14 @@
           <t>R ##T E ##IT ##I ##vo E ##gy ##apa ##M ##cer Pet …</t>
         </is>
       </c>
+      <c r="U143" t="inlineStr">
+        <is>
+          <t>Ghana</t>
+        </is>
+      </c>
     </row>
     <row r="144">
-      <c r="A144" s="1" t="n">
+      <c r="A144" t="n">
         <v>15944</v>
       </c>
       <c r="B144" t="inlineStr">
@@ -10686,9 +11191,14 @@
           <t>Energy</t>
         </is>
       </c>
+      <c r="U144" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
     </row>
     <row r="145">
-      <c r="A145" s="1" t="n">
+      <c r="A145" t="n">
         <v>5517</v>
       </c>
       <c r="B145" t="inlineStr">
@@ -10760,9 +11270,14 @@
           <t>Oil Watch International Oil ##watch ##I N ##B E ##H ##ome ##f ##E</t>
         </is>
       </c>
+      <c r="U145" t="inlineStr">
+        <is>
+          <t>England</t>
+        </is>
+      </c>
     </row>
     <row r="146">
-      <c r="A146" s="1" t="n">
+      <c r="A146" t="n">
         <v>16724</v>
       </c>
       <c r="B146" t="inlineStr">
@@ -10826,9 +11341,14 @@
       <c r="R146" t="inlineStr"/>
       <c r="S146" t="inlineStr"/>
       <c r="T146" t="inlineStr"/>
+      <c r="U146" t="inlineStr">
+        <is>
+          <t>California</t>
+        </is>
+      </c>
     </row>
     <row r="147">
-      <c r="A147" s="1" t="n">
+      <c r="A147" t="n">
         <v>565</v>
       </c>
       <c r="B147" t="inlineStr">
@@ -10899,9 +11419,10 @@
         </is>
       </c>
       <c r="T147" t="inlineStr"/>
+      <c r="U147" t="inlineStr"/>
     </row>
     <row r="148">
-      <c r="A148" s="1" t="n">
+      <c r="A148" t="n">
         <v>714</v>
       </c>
       <c r="B148" t="inlineStr">
@@ -10970,9 +11491,10 @@
         </is>
       </c>
       <c r="T148" t="inlineStr"/>
+      <c r="U148" t="inlineStr"/>
     </row>
     <row r="149">
-      <c r="A149" s="1" t="n">
+      <c r="A149" t="n">
         <v>862</v>
       </c>
       <c r="B149" t="inlineStr">
@@ -11046,9 +11568,10 @@
         </is>
       </c>
       <c r="T149" t="inlineStr"/>
+      <c r="U149" t="inlineStr"/>
     </row>
     <row r="150">
-      <c r="A150" s="1" t="n">
+      <c r="A150" t="n">
         <v>6064</v>
       </c>
       <c r="B150" t="inlineStr">
@@ -11124,9 +11647,14 @@
           <t>Mines &amp; Energy Nam African ##E ##ner ##gy ##W ##eek A Van ##A ##ater ##front</t>
         </is>
       </c>
+      <c r="U150" t="inlineStr">
+        <is>
+          <t>South Africa</t>
+        </is>
+      </c>
     </row>
     <row r="151">
-      <c r="A151" s="1" t="n">
+      <c r="A151" t="n">
         <v>3914</v>
       </c>
       <c r="B151" t="inlineStr">
@@ -11194,9 +11722,10 @@
           <t>Global Infrastructure and Networks En ##el ##G ##rid ##s</t>
         </is>
       </c>
+      <c r="U151" t="inlineStr"/>
     </row>
     <row r="152">
-      <c r="A152" s="1" t="n">
+      <c r="A152" t="n">
         <v>4947</v>
       </c>
       <c r="B152" t="inlineStr">
@@ -11264,9 +11793,14 @@
         </is>
       </c>
       <c r="T152" t="inlineStr"/>
+      <c r="U152" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
     </row>
     <row r="153">
-      <c r="A153" s="1" t="n">
+      <c r="A153" t="n">
         <v>8263</v>
       </c>
       <c r="B153" t="inlineStr">
@@ -11334,9 +11868,10 @@
           <t>Ke ##D ##on</t>
         </is>
       </c>
+      <c r="U153" t="inlineStr"/>
     </row>
     <row r="154">
-      <c r="A154" s="1" t="n">
+      <c r="A154" t="n">
         <v>11931</v>
       </c>
       <c r="B154" t="inlineStr">
@@ -11402,9 +11937,14 @@
       <c r="R154" t="inlineStr"/>
       <c r="S154" t="inlineStr"/>
       <c r="T154" t="inlineStr"/>
+      <c r="U154" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
     </row>
     <row r="155">
-      <c r="A155" s="1" t="n">
+      <c r="A155" t="n">
         <v>10903</v>
       </c>
       <c r="B155" t="inlineStr">
@@ -11474,9 +12014,14 @@
           <t>I ##EA</t>
         </is>
       </c>
+      <c r="U155" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
     </row>
     <row r="156">
-      <c r="A156" s="1" t="n">
+      <c r="A156" t="n">
         <v>3961</v>
       </c>
       <c r="B156" t="inlineStr">
@@ -11540,9 +12085,10 @@
       <c r="R156" t="inlineStr"/>
       <c r="S156" t="inlineStr"/>
       <c r="T156" t="inlineStr"/>
+      <c r="U156" t="inlineStr"/>
     </row>
     <row r="157">
-      <c r="A157" s="1" t="n">
+      <c r="A157" t="n">
         <v>15701</v>
       </c>
       <c r="B157" t="inlineStr">
@@ -11606,9 +12152,10 @@
           <t>As ##sy ##ste ##m</t>
         </is>
       </c>
+      <c r="U157" t="inlineStr"/>
     </row>
     <row r="158">
-      <c r="A158" s="1" t="n">
+      <c r="A158" t="n">
         <v>14984</v>
       </c>
       <c r="B158" t="inlineStr">
@@ -11673,9 +12220,10 @@
       <c r="R158" t="inlineStr"/>
       <c r="S158" t="inlineStr"/>
       <c r="T158" t="inlineStr"/>
+      <c r="U158" t="inlineStr"/>
     </row>
     <row r="159">
-      <c r="A159" s="1" t="n">
+      <c r="A159" t="n">
         <v>11862</v>
       </c>
       <c r="B159" t="inlineStr">
@@ -11744,9 +12292,10 @@
           <t>O ##ION ##ME ##RL ##ING ##U ##A ##IVE</t>
         </is>
       </c>
+      <c r="U159" t="inlineStr"/>
     </row>
     <row r="160">
-      <c r="A160" s="1" t="n">
+      <c r="A160" t="n">
         <v>13157</v>
       </c>
       <c r="B160" t="inlineStr">
@@ -11810,9 +12359,10 @@
           <t>Saudi Ara ##m ##co</t>
         </is>
       </c>
+      <c r="U160" t="inlineStr"/>
     </row>
     <row r="161">
-      <c r="A161" s="1" t="n">
+      <c r="A161" t="n">
         <v>11623</v>
       </c>
       <c r="B161" t="inlineStr">
@@ -11881,9 +12431,14 @@
           <t>GT</t>
         </is>
       </c>
+      <c r="U161" t="inlineStr">
+        <is>
+          <t>England</t>
+        </is>
+      </c>
     </row>
     <row r="162">
-      <c r="A162" s="1" t="n">
+      <c r="A162" t="n">
         <v>3082</v>
       </c>
       <c r="B162" t="inlineStr">
@@ -11951,9 +12506,14 @@
           <t>Del ##oit ##te J ##H ##M ##ark ##man</t>
         </is>
       </c>
+      <c r="U162" t="inlineStr">
+        <is>
+          <t>TX</t>
+        </is>
+      </c>
     </row>
     <row r="163">
-      <c r="A163" s="1" t="n">
+      <c r="A163" t="n">
         <v>15943</v>
       </c>
       <c r="B163" t="inlineStr">
@@ -12025,9 +12585,14 @@
           <t>##za ##chin</t>
         </is>
       </c>
+      <c r="U163" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
     </row>
     <row r="164">
-      <c r="A164" s="1" t="n">
+      <c r="A164" t="n">
         <v>10814</v>
       </c>
       <c r="B164" t="inlineStr">
@@ -12099,9 +12664,14 @@
           <t>EU</t>
         </is>
       </c>
+      <c r="U164" t="inlineStr">
+        <is>
+          <t>South Africa</t>
+        </is>
+      </c>
     </row>
     <row r="165">
-      <c r="A165" s="1" t="n">
+      <c r="A165" t="n">
         <v>6898</v>
       </c>
       <c r="B165" t="inlineStr">
@@ -12169,9 +12739,14 @@
           <t>Dr ##A ##nd ##rew ##S ##K Energy ##T ##tion</t>
         </is>
       </c>
+      <c r="U165" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
+      </c>
     </row>
     <row r="166">
-      <c r="A166" s="1" t="n">
+      <c r="A166" t="n">
         <v>11297</v>
       </c>
       <c r="B166" t="inlineStr">
@@ -12237,9 +12812,14 @@
       <c r="R166" t="inlineStr"/>
       <c r="S166" t="inlineStr"/>
       <c r="T166" t="inlineStr"/>
+      <c r="U166" t="inlineStr">
+        <is>
+          <t>South Africa</t>
+        </is>
+      </c>
     </row>
     <row r="167">
-      <c r="A167" s="1" t="n">
+      <c r="A167" t="n">
         <v>11165</v>
       </c>
       <c r="B167" t="inlineStr">
@@ -12303,9 +12883,14 @@
       <c r="R167" t="inlineStr"/>
       <c r="S167" t="inlineStr"/>
       <c r="T167" t="inlineStr"/>
+      <c r="U167" t="inlineStr">
+        <is>
+          <t>England</t>
+        </is>
+      </c>
     </row>
     <row r="168">
-      <c r="A168" s="1" t="n">
+      <c r="A168" t="n">
         <v>5675</v>
       </c>
       <c r="B168" t="inlineStr">
@@ -12368,9 +12953,10 @@
       <c r="R168" t="inlineStr"/>
       <c r="S168" t="inlineStr"/>
       <c r="T168" t="inlineStr"/>
+      <c r="U168" t="inlineStr"/>
     </row>
     <row r="169">
-      <c r="A169" s="1" t="n">
+      <c r="A169" t="n">
         <v>7768</v>
       </c>
       <c r="B169" t="inlineStr">
@@ -12437,9 +13023,14 @@
       <c r="R169" t="inlineStr"/>
       <c r="S169" t="inlineStr"/>
       <c r="T169" t="inlineStr"/>
+      <c r="U169" t="inlineStr">
+        <is>
+          <t>Sweden</t>
+        </is>
+      </c>
     </row>
     <row r="170">
-      <c r="A170" s="1" t="n">
+      <c r="A170" t="n">
         <v>1891</v>
       </c>
       <c r="B170" t="inlineStr">
@@ -12517,9 +13108,14 @@
           <t>IF ##A IF ##A ##media</t>
         </is>
       </c>
+      <c r="U170" t="inlineStr">
+        <is>
+          <t>Ireland</t>
+        </is>
+      </c>
     </row>
     <row r="171">
-      <c r="A171" s="1" t="n">
+      <c r="A171" t="n">
         <v>15684</v>
       </c>
       <c r="B171" t="inlineStr">
@@ -12591,9 +13187,14 @@
           <t>Nigerian National Petroleum Corporation N ##NP ##C</t>
         </is>
       </c>
+      <c r="U171" t="inlineStr">
+        <is>
+          <t>Nigeria</t>
+        </is>
+      </c>
     </row>
     <row r="172">
-      <c r="A172" s="1" t="n">
+      <c r="A172" t="n">
         <v>11283</v>
       </c>
       <c r="B172" t="inlineStr">
@@ -12668,9 +13269,14 @@
           <t>EU O ##EC ##D O</t>
         </is>
       </c>
+      <c r="U172" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
     </row>
     <row r="173">
-      <c r="A173" s="1" t="n">
+      <c r="A173" t="n">
         <v>3249</v>
       </c>
       <c r="B173" t="inlineStr">
@@ -12742,9 +13348,14 @@
           <t>Energy ##tion Hit ##achi ##E ##ner ##gy Hit ##achi ##E ##ner ##gy</t>
         </is>
       </c>
+      <c r="U173" t="inlineStr">
+        <is>
+          <t>Quebec</t>
+        </is>
+      </c>
     </row>
     <row r="174">
-      <c r="A174" s="1" t="n">
+      <c r="A174" t="n">
         <v>9138</v>
       </c>
       <c r="B174" t="inlineStr">
@@ -12814,9 +13425,14 @@
       <c r="R174" t="inlineStr"/>
       <c r="S174" t="inlineStr"/>
       <c r="T174" t="inlineStr"/>
+      <c r="U174" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
+      </c>
     </row>
     <row r="175">
-      <c r="A175" s="1" t="n">
+      <c r="A175" t="n">
         <v>3124</v>
       </c>
       <c r="B175" t="inlineStr">
@@ -12884,9 +13500,14 @@
           <t>The Financial Times</t>
         </is>
       </c>
+      <c r="U175" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
+      </c>
     </row>
     <row r="176">
-      <c r="A176" s="1" t="n">
+      <c r="A176" t="n">
         <v>6540</v>
       </c>
       <c r="B176" t="inlineStr">
@@ -12954,9 +13575,14 @@
         </is>
       </c>
       <c r="T176" t="inlineStr"/>
+      <c r="U176" t="inlineStr">
+        <is>
+          <t>Jamaica</t>
+        </is>
+      </c>
     </row>
     <row r="177">
-      <c r="A177" s="1" t="n">
+      <c r="A177" t="n">
         <v>8510</v>
       </c>
       <c r="B177" t="inlineStr">
@@ -13029,9 +13655,14 @@
           <t>E ##NE ##C</t>
         </is>
       </c>
+      <c r="U177" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
     </row>
     <row r="178">
-      <c r="A178" s="1" t="n">
+      <c r="A178" t="n">
         <v>12757</v>
       </c>
       <c r="B178" t="inlineStr">
@@ -13097,9 +13728,10 @@
         </is>
       </c>
       <c r="T178" t="inlineStr"/>
+      <c r="U178" t="inlineStr"/>
     </row>
     <row r="179">
-      <c r="A179" s="1" t="n">
+      <c r="A179" t="n">
         <v>5862</v>
       </c>
       <c r="B179" t="inlineStr">
@@ -13172,9 +13804,14 @@
           <t>##W ##work World ##B ##an ##k AD W ##G Energy World ##B ##an ##k ##I ##ndi ##a World ##B ##an ##k ##SA ##sia</t>
         </is>
       </c>
+      <c r="U179" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
     </row>
     <row r="180">
-      <c r="A180" s="1" t="n">
+      <c r="A180" t="n">
         <v>4304</v>
       </c>
       <c r="B180" t="inlineStr">
@@ -13243,9 +13880,14 @@
         </is>
       </c>
       <c r="T180" t="inlineStr"/>
+      <c r="U180" t="inlineStr">
+        <is>
+          <t>Ireland</t>
+        </is>
+      </c>
     </row>
     <row r="181">
-      <c r="A181" s="1" t="n">
+      <c r="A181" t="n">
         <v>10026</v>
       </c>
       <c r="B181" t="inlineStr">
@@ -13307,9 +13949,10 @@
       <c r="R181" t="inlineStr"/>
       <c r="S181" t="inlineStr"/>
       <c r="T181" t="inlineStr"/>
+      <c r="U181" t="inlineStr"/>
     </row>
     <row r="182">
-      <c r="A182" s="1" t="n">
+      <c r="A182" t="n">
         <v>3926</v>
       </c>
       <c r="B182" t="inlineStr">
@@ -13381,9 +14024,10 @@
         </is>
       </c>
       <c r="T182" t="inlineStr"/>
+      <c r="U182" t="inlineStr"/>
     </row>
     <row r="183">
-      <c r="A183" s="1" t="n">
+      <c r="A183" t="n">
         <v>8009</v>
       </c>
       <c r="B183" t="inlineStr">
@@ -13460,9 +14104,14 @@
           <t>Mines and Energy</t>
         </is>
       </c>
+      <c r="U183" t="inlineStr">
+        <is>
+          <t>England</t>
+        </is>
+      </c>
     </row>
     <row r="184">
-      <c r="A184" s="1" t="n">
+      <c r="A184" t="n">
         <v>15104</v>
       </c>
       <c r="B184" t="inlineStr">
@@ -13534,9 +14183,10 @@
           <t>R ##MI ##en ##hor ##s</t>
         </is>
       </c>
+      <c r="U184" t="inlineStr"/>
     </row>
     <row r="185">
-      <c r="A185" s="1" t="n">
+      <c r="A185" t="n">
         <v>4467</v>
       </c>
       <c r="B185" t="inlineStr">
@@ -13605,9 +14255,14 @@
           <t>Y</t>
         </is>
       </c>
+      <c r="U185" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
+      </c>
     </row>
     <row r="186">
-      <c r="A186" s="1" t="n">
+      <c r="A186" t="n">
         <v>10027</v>
       </c>
       <c r="B186" t="inlineStr">
@@ -13676,9 +14331,14 @@
         </is>
       </c>
       <c r="T186" t="inlineStr"/>
+      <c r="U186" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
     </row>
     <row r="187">
-      <c r="A187" s="1" t="n">
+      <c r="A187" t="n">
         <v>6385</v>
       </c>
       <c r="B187" t="inlineStr">
@@ -13748,9 +14408,14 @@
       </c>
       <c r="S187" t="inlineStr"/>
       <c r="T187" t="inlineStr"/>
+      <c r="U187" t="inlineStr">
+        <is>
+          <t>FRANCE</t>
+        </is>
+      </c>
     </row>
     <row r="188">
-      <c r="A188" s="1" t="n">
+      <c r="A188" t="n">
         <v>13517</v>
       </c>
       <c r="B188" t="inlineStr">
@@ -13822,9 +14487,14 @@
         </is>
       </c>
       <c r="T188" t="inlineStr"/>
+      <c r="U188" t="inlineStr">
+        <is>
+          <t>British Columbia</t>
+        </is>
+      </c>
     </row>
     <row r="189">
-      <c r="A189" s="1" t="n">
+      <c r="A189" t="n">
         <v>3283</v>
       </c>
       <c r="B189" t="inlineStr">
@@ -13888,9 +14558,14 @@
       <c r="R189" t="inlineStr"/>
       <c r="S189" t="inlineStr"/>
       <c r="T189" t="inlineStr"/>
+      <c r="U189" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
     </row>
     <row r="190">
-      <c r="A190" s="1" t="n">
+      <c r="A190" t="n">
         <v>946</v>
       </c>
       <c r="B190" t="inlineStr">
@@ -13954,9 +14629,10 @@
           <t>The ##R ##eal ##P</t>
         </is>
       </c>
+      <c r="U190" t="inlineStr"/>
     </row>
     <row r="191">
-      <c r="A191" s="1" t="n">
+      <c r="A191" t="n">
         <v>11528</v>
       </c>
       <c r="B191" t="inlineStr">
@@ -14020,9 +14696,14 @@
       <c r="R191" t="inlineStr"/>
       <c r="S191" t="inlineStr"/>
       <c r="T191" t="inlineStr"/>
+      <c r="U191" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
     </row>
     <row r="192">
-      <c r="A192" s="1" t="n">
+      <c r="A192" t="n">
         <v>15257</v>
       </c>
       <c r="B192" t="inlineStr">
@@ -14087,9 +14768,14 @@
       <c r="R192" t="inlineStr"/>
       <c r="S192" t="inlineStr"/>
       <c r="T192" t="inlineStr"/>
+      <c r="U192" t="inlineStr">
+        <is>
+          <t>WA</t>
+        </is>
+      </c>
     </row>
     <row r="193">
-      <c r="A193" s="1" t="n">
+      <c r="A193" t="n">
         <v>5906</v>
       </c>
       <c r="B193" t="inlineStr">
@@ -14156,9 +14842,14 @@
       <c r="R193" t="inlineStr"/>
       <c r="S193" t="inlineStr"/>
       <c r="T193" t="inlineStr"/>
+      <c r="U193" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
     </row>
     <row r="194">
-      <c r="A194" s="1" t="n">
+      <c r="A194" t="n">
         <v>12030</v>
       </c>
       <c r="B194" t="inlineStr">
@@ -14222,9 +14913,14 @@
       <c r="R194" t="inlineStr"/>
       <c r="S194" t="inlineStr"/>
       <c r="T194" t="inlineStr"/>
+      <c r="U194" t="inlineStr">
+        <is>
+          <t>Myanmar</t>
+        </is>
+      </c>
     </row>
     <row r="195">
-      <c r="A195" s="1" t="n">
+      <c r="A195" t="n">
         <v>12252</v>
       </c>
       <c r="B195" t="inlineStr">
@@ -14292,9 +14988,14 @@
           <t>MIT Becca ##F ##or ##W ##ard ##7</t>
         </is>
       </c>
+      <c r="U195" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
     </row>
     <row r="196">
-      <c r="A196" s="1" t="n">
+      <c r="A196" t="n">
         <v>14125</v>
       </c>
       <c r="B196" t="inlineStr">
@@ -14370,9 +15071,14 @@
           <t>C Carbon ##C ##oop</t>
         </is>
       </c>
+      <c r="U196" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
     </row>
     <row r="197">
-      <c r="A197" s="1" t="n">
+      <c r="A197" t="n">
         <v>15981</v>
       </c>
       <c r="B197" t="inlineStr">
@@ -14448,9 +15154,14 @@
           <t>Canadian Energy Industry IBM Consul ##ting</t>
         </is>
       </c>
+      <c r="U197" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
+      </c>
     </row>
     <row r="198">
-      <c r="A198" s="1" t="n">
+      <c r="A198" t="n">
         <v>2607</v>
       </c>
       <c r="B198" t="inlineStr">
@@ -14515,9 +15226,10 @@
         </is>
       </c>
       <c r="T198" t="inlineStr"/>
+      <c r="U198" t="inlineStr"/>
     </row>
     <row r="199">
-      <c r="A199" s="1" t="n">
+      <c r="A199" t="n">
         <v>3963</v>
       </c>
       <c r="B199" t="inlineStr">
@@ -14585,9 +15297,14 @@
           <t>Force @ C ##ava ##gna ##U ##K Group</t>
         </is>
       </c>
+      <c r="U199" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
     </row>
     <row r="200">
-      <c r="A200" s="1" t="n">
+      <c r="A200" t="n">
         <v>1547</v>
       </c>
       <c r="B200" t="inlineStr">
@@ -14652,9 +15369,10 @@
           <t>RS</t>
         </is>
       </c>
+      <c r="U200" t="inlineStr"/>
     </row>
     <row r="201">
-      <c r="A201" s="1" t="n">
+      <c r="A201" t="n">
         <v>4505</v>
       </c>
       <c r="B201" t="inlineStr">
@@ -14730,6 +15448,11 @@
       <c r="T201" t="inlineStr">
         <is>
           <t>Energy ##T ##ran ##si ##tion</t>
+        </is>
+      </c>
+      <c r="U201" t="inlineStr">
+        <is>
+          <t>Alberta</t>
         </is>
       </c>
     </row>
